--- a/2023-05/202305/01_基本設計書/【倉庫】テーブル定義書202305.xlsx
+++ b/2023-05/202305/01_基本設計書/【倉庫】テーブル定義書202305.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\202305\01_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\01_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D4875-216B-4A11-9495-7D6EF07ED889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="63" r:id="rId1"/>
@@ -25,20 +26,7 @@
     <definedName name="TABLE_2" localSheetId="2">テーブル一覧!$C$66:$C$66</definedName>
     <definedName name="TABLE_3" localSheetId="2">テーブル一覧!$C$66:$C$66</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -694,17 +682,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コード区分</t>
-    <rPh sb="3" eb="5">
-      <t>ｸﾌﾞﾝ</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>code_kbn</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>コードID</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -746,11 +723,22 @@
     <t>del_flg</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>コード区分</t>
+    <rPh sb="3" eb="5">
+      <t>ｸﾌﾞﾝ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_kbn</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1580,10 +1568,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2"/>
-    <cellStyle name="標準_詳細設計書_サンプル" xfId="3"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_詳細設計書_サンプル" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1628,8 +1616,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1600200" y="806450"/>
-          <a:ext cx="7207250" cy="228600"/>
+          <a:off x="1447800" y="809625"/>
+          <a:ext cx="6524625" cy="228600"/>
           <a:chOff x="1234" y="3654"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
@@ -1761,8 +1749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1600200" y="2952750"/>
-          <a:ext cx="7207250" cy="228600"/>
+          <a:off x="1447800" y="2952750"/>
+          <a:ext cx="6524625" cy="228600"/>
           <a:chOff x="1234" y="5634"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
@@ -1870,7 +1858,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1945,6 +1933,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1980,6 +1985,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2155,16 +2177,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="6"/>
+    <col min="1" max="16384" width="2.6328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -5013,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5021,12 +5043,12 @@
       <selection pane="bottomLeft" activeCell="BZ12" sqref="BZ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
+    <col min="1" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="11.25" thickTop="1">
+    <row r="1" spans="1:52" ht="10" thickTop="1">
       <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
@@ -5087,7 +5109,7 @@
       <c r="AY1" s="24"/>
       <c r="AZ1" s="25"/>
     </row>
-    <row r="2" spans="1:52" ht="11.25" thickBot="1">
+    <row r="2" spans="1:52" ht="10" thickBot="1">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -5146,7 +5168,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="36" t="s">
         <v>11</v>
@@ -8220,7 +8242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1122"/>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
@@ -8230,11 +8252,11 @@
       <selection pane="bottomLeft" activeCell="W43" sqref="W43:AZ43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="55" width="2.625" style="2"/>
-    <col min="56" max="56" width="2.625" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="2.625" style="2"/>
+    <col min="1" max="55" width="2.6328125" style="2"/>
+    <col min="56" max="56" width="2.6328125" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1">
@@ -8365,7 +8387,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="47" t="s">
         <v>22</v>
@@ -11276,19 +11298,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="L12" sqref="L12:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
+    <col min="1" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1">
@@ -11427,7 +11449,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1">
+    <row r="3" spans="1:52" ht="10" thickTop="1">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:52">
@@ -11513,7 +11535,7 @@
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -11524,7 +11546,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="42"/>
       <c r="L5" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -11535,7 +11557,7 @@
       <c r="S5" s="41"/>
       <c r="T5" s="42"/>
       <c r="U5" s="53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V5" s="54"/>
       <c r="W5" s="54"/>
@@ -11776,7 +11798,7 @@
       <c r="AY8" s="46"/>
       <c r="AZ8" s="46"/>
     </row>
-    <row r="9" spans="1:52" ht="13.5">
+    <row r="9" spans="1:52" ht="11.5">
       <c r="A9" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11794,7 +11816,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="42"/>
       <c r="L9" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -14231,18 +14253,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8:AA8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
+    <col min="1" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1">
@@ -14381,7 +14403,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1">
+    <row r="3" spans="1:52" ht="10" thickTop="1">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:52">
@@ -17767,7 +17789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -17776,11 +17798,11 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="51" width="2.625" style="2"/>
-    <col min="52" max="52" width="31.125" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="2.625" style="2"/>
+    <col min="1" max="51" width="2.6328125" style="2"/>
+    <col min="52" max="52" width="31.08984375" style="2" customWidth="1"/>
+    <col min="53" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1">
@@ -17919,7 +17941,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1">
+    <row r="3" spans="1:52" ht="10" thickTop="1">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:52">
@@ -20856,20 +20878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:K6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
   <cols>
-    <col min="1" max="53" width="2.625" style="2"/>
-    <col min="54" max="54" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="2.625" style="2"/>
+    <col min="1" max="53" width="2.6328125" style="2"/>
+    <col min="54" max="54" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="2.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1">
@@ -21008,7 +21030,7 @@
       <c r="AY2" s="27"/>
       <c r="AZ2" s="28"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1">
+    <row r="3" spans="1:52" ht="10" thickTop="1">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:52">
@@ -21094,7 +21116,7 @@
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="40" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>86</v>
@@ -21121,7 +21143,7 @@
         <v>86</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>88</v>
@@ -21205,7 +21227,7 @@
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>86</v>
@@ -21232,7 +21254,7 @@
         <v>86</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M6" s="41" t="s">
         <v>88</v>
@@ -21316,58 +21338,58 @@
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="M7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="N7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="O7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="P7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="Q7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="R7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="S7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="T7" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>155</v>
       </c>
       <c r="U7" s="40" t="s">
         <v>81</v>
@@ -21513,7 +21535,7 @@
       <c r="AK8" s="56"/>
       <c r="AL8" s="56"/>
       <c r="AM8" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AN8" s="46"/>
       <c r="AO8" s="46"/>
@@ -23679,6 +23701,26 @@
     </row>
   </sheetData>
   <mergeCells count="444">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AZ5"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:X2"/>
@@ -23686,29 +23728,8 @@
     <mergeCell ref="AC2:AL2"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM4:AZ4"/>
     <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AZ5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="L8:T8"/>
@@ -23725,6 +23746,12 @@
     <mergeCell ref="AI8:AJ8"/>
     <mergeCell ref="AK8:AL8"/>
     <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
@@ -24061,15 +24088,6 @@
     <mergeCell ref="AK37:AL37"/>
     <mergeCell ref="AM37:AZ37"/>
     <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:T40"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
     <mergeCell ref="AG40:AH40"/>
     <mergeCell ref="AI40:AJ40"/>
     <mergeCell ref="AK40:AL40"/>
@@ -24079,20 +24097,6 @@
     <mergeCell ref="AI39:AJ39"/>
     <mergeCell ref="AK39:AL39"/>
     <mergeCell ref="AM39:AZ39"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="L41:T41"/>
@@ -24103,6 +24107,24 @@
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AB39:AD39"/>
     <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:T40"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:T39"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AG42:AH42"/>
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AK42:AL42"/>
